--- a/Archivos de trabajo/Yami/ajuste/resultados_regresiones.xlsx
+++ b/Archivos de trabajo/Yami/ajuste/resultados_regresiones.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/Paper-ITCRM.SF/Archivos de trabajo/Yami/ajuste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_B8923127D519A3F4FA6623A877FE019392594B26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240FB597-EE9D-41C9-A0BC-5637FFECF342}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_B8923127D519A3F4FA6623A877FE019392594B26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02DB8630-384E-4FCE-873E-73EC70B4375D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Antecedentes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>term</t>
   </si>
@@ -299,6 +300,18 @@
   </si>
   <si>
     <t>R² ajustado</t>
+  </si>
+  <si>
+    <t>Resumen de elasticidades expo~itcrm argentina</t>
+  </si>
+  <si>
+    <t>Berretoni y cartesana</t>
+  </si>
+  <si>
+    <t>Albornoz, Illanes y Nazareno</t>
+  </si>
+  <si>
+    <t>Puig y Guarducci</t>
   </si>
 </sst>
 </file>
@@ -334,9 +347,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -685,7 +697,7 @@
       <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>0.30099999999999999</v>
       </c>
     </row>
@@ -699,7 +711,7 @@
       <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>0.309</v>
       </c>
     </row>
@@ -713,7 +725,7 @@
       <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.46300000000000002</v>
       </c>
     </row>
@@ -727,7 +739,7 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.36699999999999999</v>
       </c>
     </row>
@@ -741,7 +753,7 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0.374</v>
       </c>
     </row>
@@ -755,7 +767,7 @@
       <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.57199999999999995</v>
       </c>
     </row>
@@ -772,7 +784,7 @@
       <c r="F8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.29899999999999999</v>
       </c>
     </row>
@@ -789,7 +801,7 @@
       <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>0.309</v>
       </c>
     </row>
@@ -806,7 +818,7 @@
       <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>0.48299999999999998</v>
       </c>
     </row>
@@ -823,7 +835,7 @@
       <c r="F11" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.36499999999999999</v>
       </c>
     </row>
@@ -840,7 +852,7 @@
       <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0.377</v>
       </c>
     </row>
@@ -857,7 +869,7 @@
       <c r="F13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>0.59499999999999997</v>
       </c>
     </row>
@@ -877,7 +889,7 @@
       <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.56899999999999995</v>
       </c>
     </row>
@@ -897,7 +909,7 @@
       <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>0.57599999999999996</v>
       </c>
     </row>
@@ -917,7 +929,7 @@
       <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0.628</v>
       </c>
     </row>
@@ -934,7 +946,7 @@
       <c r="H17" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>0.70799999999999996</v>
       </c>
     </row>
@@ -951,7 +963,7 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>0.70799999999999996</v>
       </c>
     </row>
@@ -968,7 +980,7 @@
       <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -988,7 +1000,7 @@
       <c r="H20" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>0.70699999999999996</v>
       </c>
     </row>
@@ -1008,7 +1020,7 @@
       <c r="H21" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>0.70699999999999996</v>
       </c>
     </row>
@@ -1028,7 +1040,7 @@
       <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>0.72599999999999998</v>
       </c>
     </row>
@@ -1046,4 +1058,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211B18AE-1D4F-4138-A622-B0B663CB1D7F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>